--- a/data/nzd0577/nzd0577.xlsx
+++ b/data/nzd0577/nzd0577.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G967"/>
+  <dimension ref="A1:G972"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25074,6 +25074,141 @@
         <v>212.81</v>
       </c>
       <c r="G967" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="968">
+      <c r="A968" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-05 22:07:28+00:00</t>
+        </is>
+      </c>
+      <c r="B968" t="n">
+        <v>242.15</v>
+      </c>
+      <c r="C968" t="n">
+        <v>221.74</v>
+      </c>
+      <c r="D968" t="n">
+        <v>226.9</v>
+      </c>
+      <c r="E968" t="n">
+        <v>214.88</v>
+      </c>
+      <c r="F968" t="n">
+        <v>215.83</v>
+      </c>
+      <c r="G968" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="969">
+      <c r="A969" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-21 22:07:27+00:00</t>
+        </is>
+      </c>
+      <c r="B969" t="n">
+        <v>244.26</v>
+      </c>
+      <c r="C969" t="n">
+        <v>218.81</v>
+      </c>
+      <c r="D969" t="n">
+        <v>225.72</v>
+      </c>
+      <c r="E969" t="n">
+        <v>217.4</v>
+      </c>
+      <c r="F969" t="n">
+        <v>211.67</v>
+      </c>
+      <c r="G969" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="970">
+      <c r="A970" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-05 22:13:46+00:00</t>
+        </is>
+      </c>
+      <c r="B970" t="n">
+        <v>253.02</v>
+      </c>
+      <c r="C970" t="n">
+        <v>224.12</v>
+      </c>
+      <c r="D970" t="n">
+        <v>232.59</v>
+      </c>
+      <c r="E970" t="n">
+        <v>219.67</v>
+      </c>
+      <c r="F970" t="n">
+        <v>215.91</v>
+      </c>
+      <c r="G970" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="971">
+      <c r="A971" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-06 22:07:31+00:00</t>
+        </is>
+      </c>
+      <c r="B971" t="n">
+        <v>258.65</v>
+      </c>
+      <c r="C971" t="n">
+        <v>224.53</v>
+      </c>
+      <c r="D971" t="n">
+        <v>234.34</v>
+      </c>
+      <c r="E971" t="n">
+        <v>219.43</v>
+      </c>
+      <c r="F971" t="n">
+        <v>218.86</v>
+      </c>
+      <c r="G971" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="972">
+      <c r="A972" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-21 22:13:43+00:00</t>
+        </is>
+      </c>
+      <c r="B972" t="n">
+        <v>244.68</v>
+      </c>
+      <c r="C972" t="n">
+        <v>217.48</v>
+      </c>
+      <c r="D972" t="n">
+        <v>231.3</v>
+      </c>
+      <c r="E972" t="n">
+        <v>215.69</v>
+      </c>
+      <c r="F972" t="n">
+        <v>215.06</v>
+      </c>
+      <c r="G972" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -25090,7 +25225,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1049"/>
+  <dimension ref="A1:B1055"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35588,6 +35723,66 @@
       </c>
       <c r="B1049" t="n">
         <v>0.55</v>
+      </c>
+    </row>
+    <row r="1050">
+      <c r="A1050" t="inlineStr">
+        <is>
+          <t>2025-10-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B1050" t="n">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="1051">
+      <c r="A1051" t="inlineStr">
+        <is>
+          <t>2025-10-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B1051" t="n">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="1052">
+      <c r="A1052" t="inlineStr">
+        <is>
+          <t>2025-10-28 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B1052" t="n">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="1053">
+      <c r="A1053" t="inlineStr">
+        <is>
+          <t>2025-11-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B1053" t="n">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="1054">
+      <c r="A1054" t="inlineStr">
+        <is>
+          <t>2025-11-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B1054" t="n">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="1055">
+      <c r="A1055" t="inlineStr">
+        <is>
+          <t>2025-11-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B1055" t="n">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>
@@ -35749,34 +35944,34 @@
         <v>0.045</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0392</v>
+        <v>0.0389</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0479</v>
+        <v>0.0477</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6848001561898253</v>
+        <v>0.6817429975248439</v>
       </c>
       <c r="J2" t="n">
-        <v>966</v>
+        <v>971</v>
       </c>
       <c r="K2" t="n">
-        <v>660</v>
+        <v>665</v>
       </c>
       <c r="L2" t="n">
-        <v>0.04273946963273201</v>
+        <v>0.04301311219377857</v>
       </c>
       <c r="M2" t="n">
-        <v>16.84670635616975</v>
+        <v>16.76109498029843</v>
       </c>
       <c r="N2" t="n">
-        <v>598.1158168245527</v>
+        <v>593.9460228119851</v>
       </c>
       <c r="O2" t="n">
-        <v>24.45640645770659</v>
+        <v>24.37100783332493</v>
       </c>
       <c r="P2" t="n">
-        <v>232.6491900090905</v>
+        <v>232.6799728858835</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -35821,34 +36016,34 @@
         <v>0.2</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1854</v>
+        <v>0.1852</v>
       </c>
       <c r="H3" t="n">
         <v>0.2</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05824276881891349</v>
+        <v>0.05371333428606612</v>
       </c>
       <c r="J3" t="n">
-        <v>966</v>
+        <v>971</v>
       </c>
       <c r="K3" t="n">
-        <v>878</v>
+        <v>883</v>
       </c>
       <c r="L3" t="n">
-        <v>0.004959012420796771</v>
+        <v>0.004256671185241534</v>
       </c>
       <c r="M3" t="n">
-        <v>4.66977694329316</v>
+        <v>4.667106093065941</v>
       </c>
       <c r="N3" t="n">
-        <v>38.58353580667023</v>
+        <v>38.50537756533601</v>
       </c>
       <c r="O3" t="n">
-        <v>6.211564682643998</v>
+        <v>6.205270144428526</v>
       </c>
       <c r="P3" t="n">
-        <v>223.9509163226594</v>
+        <v>223.9968799356568</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -35899,28 +36094,28 @@
         <v>0.2</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1451524656901099</v>
+        <v>0.1437048463363431</v>
       </c>
       <c r="J4" t="n">
-        <v>966</v>
+        <v>971</v>
       </c>
       <c r="K4" t="n">
-        <v>863</v>
+        <v>868</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03225551210119615</v>
+        <v>0.03194973579135318</v>
       </c>
       <c r="M4" t="n">
-        <v>4.620323936917581</v>
+        <v>4.611129488420565</v>
       </c>
       <c r="N4" t="n">
-        <v>35.86047554769174</v>
+        <v>35.72696543891846</v>
       </c>
       <c r="O4" t="n">
-        <v>5.988361674756439</v>
+        <v>5.977203814403392</v>
       </c>
       <c r="P4" t="n">
-        <v>227.6673949043298</v>
+        <v>227.6820530023475</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -35965,34 +36160,34 @@
         <v>0.165</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1568</v>
+        <v>0.1566</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1774</v>
+        <v>0.1768</v>
       </c>
       <c r="I5" t="n">
-        <v>0.140142546727614</v>
+        <v>0.1346817210219176</v>
       </c>
       <c r="J5" t="n">
-        <v>966</v>
+        <v>971</v>
       </c>
       <c r="K5" t="n">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02273787489423762</v>
+        <v>0.02122505660034568</v>
       </c>
       <c r="M5" t="n">
-        <v>5.536093722443505</v>
+        <v>5.533073904263941</v>
       </c>
       <c r="N5" t="n">
-        <v>48.13901191933756</v>
+        <v>48.01482700055141</v>
       </c>
       <c r="O5" t="n">
-        <v>6.938228298300479</v>
+        <v>6.929273194249986</v>
       </c>
       <c r="P5" t="n">
-        <v>218.5980960565809</v>
+        <v>218.6534758102362</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -36037,34 +36232,34 @@
         <v>0.165</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1482</v>
+        <v>0.1475</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1833</v>
+        <v>0.1821</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2710281357466353</v>
+        <v>0.2616067690859022</v>
       </c>
       <c r="J6" t="n">
-        <v>966</v>
+        <v>971</v>
       </c>
       <c r="K6" t="n">
-        <v>846</v>
+        <v>851</v>
       </c>
       <c r="L6" t="n">
-        <v>0.08093239999650714</v>
+        <v>0.07603865804104948</v>
       </c>
       <c r="M6" t="n">
-        <v>5.454468597674703</v>
+        <v>5.476019013290889</v>
       </c>
       <c r="N6" t="n">
-        <v>47.20749802305274</v>
+        <v>47.36782690705552</v>
       </c>
       <c r="O6" t="n">
-        <v>6.87077128298219</v>
+        <v>6.882428852306104</v>
       </c>
       <c r="P6" t="n">
-        <v>216.7260143483122</v>
+        <v>216.8222395434226</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -36102,7 +36297,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G967"/>
+  <dimension ref="A1:G972"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68937,6 +69132,191 @@
         </is>
       </c>
     </row>
+    <row r="968">
+      <c r="A968" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-05 22:07:28+00:00</t>
+        </is>
+      </c>
+      <c r="B968" t="inlineStr">
+        <is>
+          <t>-41.04293173996298,173.0201295919983</t>
+        </is>
+      </c>
+      <c r="C968" t="inlineStr">
+        <is>
+          <t>-41.042433435695514,173.01940038148078</t>
+        </is>
+      </c>
+      <c r="D968" t="inlineStr">
+        <is>
+          <t>-41.041846003474106,173.01897007966036</t>
+        </is>
+      </c>
+      <c r="E968" t="inlineStr">
+        <is>
+          <t>-41.04121690631859,173.01848405936846</t>
+        </is>
+      </c>
+      <c r="F968" t="inlineStr">
+        <is>
+          <t>-41.04054455068888,173.01814139584977</t>
+        </is>
+      </c>
+      <c r="G968" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="969">
+      <c r="A969" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-21 22:07:27+00:00</t>
+        </is>
+      </c>
+      <c r="B969" t="inlineStr">
+        <is>
+          <t>-41.042921214450246,173.02015049629657</t>
+        </is>
+      </c>
+      <c r="C969" t="inlineStr">
+        <is>
+          <t>-41.04244805150314,173.01937135328367</t>
+        </is>
+      </c>
+      <c r="D969" t="inlineStr">
+        <is>
+          <t>-41.041849945267515,173.01895704112704</t>
+        </is>
+      </c>
+      <c r="E969" t="inlineStr">
+        <is>
+          <t>-41.041208481085405,173.01851190032363</t>
+        </is>
+      </c>
+      <c r="F969" t="inlineStr">
+        <is>
+          <t>-41.04055845133463,173.0180954325861</t>
+        </is>
+      </c>
+      <c r="G969" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="970">
+      <c r="A970" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-05 22:13:46+00:00</t>
+        </is>
+      </c>
+      <c r="B970" t="inlineStr">
+        <is>
+          <t>-41.042877516072245,173.02023728373842</t>
+        </is>
+      </c>
+      <c r="C970" t="inlineStr">
+        <is>
+          <t>-41.0424215634641,173.01942396068944</t>
+        </is>
+      </c>
+      <c r="D970" t="inlineStr">
+        <is>
+          <t>-41.04182699599188,173.01903295188828</t>
+        </is>
+      </c>
+      <c r="E970" t="inlineStr">
+        <is>
+          <t>-41.04120089168309,173.01853697927316</t>
+        </is>
+      </c>
+      <c r="F970" t="inlineStr">
+        <is>
+          <t>-41.0405442833686,173.01814227975848</t>
+        </is>
+      </c>
+      <c r="G970" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="971">
+      <c r="A971" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-06 22:07:31+00:00</t>
+        </is>
+      </c>
+      <c r="B971" t="inlineStr">
+        <is>
+          <t>-41.04284943134944,173.02029306145153</t>
+        </is>
+      </c>
+      <c r="C971" t="inlineStr">
+        <is>
+          <t>-41.042419518247286,173.01942802265307</t>
+        </is>
+      </c>
+      <c r="D971" t="inlineStr">
+        <is>
+          <t>-41.04182115009852,173.0190522886822</t>
+        </is>
+      </c>
+      <c r="E971" t="inlineStr">
+        <is>
+          <t>-41.04120169408712,173.01853432775454</t>
+        </is>
+      </c>
+      <c r="F971" t="inlineStr">
+        <is>
+          <t>-41.040534425928136,173.01817487388777</t>
+        </is>
+      </c>
+      <c r="G971" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="972">
+      <c r="A972" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-21 22:13:43+00:00</t>
+        </is>
+      </c>
+      <c r="B972" t="inlineStr">
+        <is>
+          <t>-41.04291911932403,173.0201546573409</t>
+        </is>
+      </c>
+      <c r="C972" t="inlineStr">
+        <is>
+          <t>-41.04245468597996,173.01935817665756</t>
+        </is>
+      </c>
+      <c r="D972" t="inlineStr">
+        <is>
+          <t>-41.04183130524833,173.01901869790655</t>
+        </is>
+      </c>
+      <c r="E972" t="inlineStr">
+        <is>
+          <t>-41.041214198208664,173.01849300824767</t>
+        </is>
+      </c>
+      <c r="F972" t="inlineStr">
+        <is>
+          <t>-41.04054712364634,173.01813288822788</t>
+        </is>
+      </c>
+      <c r="G972" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
